--- a/tools/xlsx/SOC系统协议整理.xlsx
+++ b/tools/xlsx/SOC系统协议整理.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27809"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\2016-NanoGrid\00-Docments\8-Hardware\C-SOC\4 - 产品说明书\1-通讯规约\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mageia/Dropbox/Workspace/meijizhan/tools/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="27980" windowHeight="16590"/>
+    <workbookView xWindow="3840" yWindow="1820" windowWidth="27980" windowHeight="16600"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="9" r:id="rId1"/>
@@ -20,12 +20,20 @@
     <sheet name="计量泵指令" sheetId="8" r:id="rId6"/>
     <sheet name="Parameters(drop)" sheetId="1" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="292">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -903,24 +911,52 @@
   </si>
   <si>
     <t>line</t>
+  </si>
+  <si>
+    <t>CustomPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustomEnergy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kWh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustomHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -961,6 +997,24 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -980,46 +1034,64 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1053,9 +1125,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1106,9 +1175,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1174,7 +1252,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>596900</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
@@ -1218,7 +1296,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1260,12 +1338,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1295,12 +1373,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1504,2365 +1582,2441 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R52"/>
+  <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.81640625" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" customWidth="1"/>
-    <col min="10" max="10" width="25.6328125" customWidth="1"/>
-    <col min="11" max="11" width="38.6328125" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" customWidth="1"/>
+    <col min="11" max="11" width="38.6640625" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="12.7265625" customWidth="1"/>
-    <col min="17" max="17" width="13.90625" customWidth="1"/>
-    <col min="18" max="18" width="13.08984375" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" customWidth="1"/>
+    <col min="17" max="17" width="13.83203125" customWidth="1"/>
+    <col min="18" max="18" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="25" customHeight="1">
-      <c r="A2" s="22">
-        <v>1</v>
-      </c>
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="27"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="27"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="27"/>
+    </row>
+    <row r="5" spans="1:18" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="21">
+        <v>1</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D5" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22">
-        <v>1</v>
-      </c>
-      <c r="I2" s="22">
-        <v>0</v>
-      </c>
-      <c r="J2" s="25" t="s">
+      <c r="G5" s="21"/>
+      <c r="H5" s="21">
+        <v>1</v>
+      </c>
+      <c r="I5" s="21">
+        <v>0</v>
+      </c>
+      <c r="J5" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22" t="s">
+      <c r="K5" s="21"/>
+      <c r="L5" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="M2" s="22"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="22">
+      <c r="M5" s="21"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="21">
         <v>2</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F6" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G6" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="H3" s="22">
-        <v>1</v>
-      </c>
-      <c r="I3" s="22">
-        <v>0</v>
-      </c>
-      <c r="J3" s="25" t="s">
+      <c r="H6" s="21">
+        <v>1</v>
+      </c>
+      <c r="I6" s="21">
+        <v>0</v>
+      </c>
+      <c r="J6" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22" t="s">
+      <c r="K6" s="21"/>
+      <c r="L6" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="M3" s="22"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="22">
+      <c r="M6" s="21"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D7" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F7" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G7" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="H4" s="22">
-        <v>1</v>
-      </c>
-      <c r="I4" s="22">
-        <v>0</v>
-      </c>
-      <c r="J4" s="25" t="s">
+      <c r="H7" s="21">
+        <v>1</v>
+      </c>
+      <c r="I7" s="21">
+        <v>0</v>
+      </c>
+      <c r="J7" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22" t="s">
+      <c r="K7" s="21"/>
+      <c r="L7" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="M4" s="22"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="22">
+      <c r="M7" s="21"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="21">
         <v>4</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C8" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D8" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E8" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F8" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G8" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="H5" s="22">
-        <v>1</v>
-      </c>
-      <c r="I5" s="22">
-        <v>0</v>
-      </c>
-      <c r="J5" s="25" t="s">
+      <c r="H8" s="21">
+        <v>1</v>
+      </c>
+      <c r="I8" s="21">
+        <v>0</v>
+      </c>
+      <c r="J8" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22" t="s">
+      <c r="K8" s="21"/>
+      <c r="L8" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="M5" s="22"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="22">
+      <c r="M8" s="21"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="21">
         <v>5</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D9" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E9" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F9" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22">
-        <v>1</v>
-      </c>
-      <c r="I6" s="22">
-        <v>0</v>
-      </c>
-      <c r="J6" s="25" t="s">
+      <c r="G9" s="21"/>
+      <c r="H9" s="21">
+        <v>1</v>
+      </c>
+      <c r="I9" s="21">
+        <v>0</v>
+      </c>
+      <c r="J9" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22" t="s">
+      <c r="K9" s="21"/>
+      <c r="L9" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="M6" s="22"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="22">
+      <c r="M9" s="21"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="21">
         <v>6</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E10" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F10" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22">
-        <v>1</v>
-      </c>
-      <c r="I7" s="22">
-        <v>0</v>
-      </c>
-      <c r="J7" s="25" t="s">
+      <c r="G10" s="21"/>
+      <c r="H10" s="21">
+        <v>1</v>
+      </c>
+      <c r="I10" s="21">
+        <v>0</v>
+      </c>
+      <c r="J10" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="K7" s="25" t="s">
+      <c r="K10" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="L7" s="22" t="s">
+      <c r="L10" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="22">
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="21">
         <v>7</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C11" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D11" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E11" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F11" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22">
-        <v>1</v>
-      </c>
-      <c r="I8" s="22">
-        <v>0</v>
-      </c>
-      <c r="J8" s="25" t="s">
+      <c r="G11" s="21"/>
+      <c r="H11" s="21">
+        <v>1</v>
+      </c>
+      <c r="I11" s="21">
+        <v>0</v>
+      </c>
+      <c r="J11" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="K8" s="25" t="s">
+      <c r="K11" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="L11" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="22">
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="21">
         <v>8</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C12" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D12" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E12" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F12" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22">
-        <v>1</v>
-      </c>
-      <c r="I9" s="22">
-        <v>0</v>
-      </c>
-      <c r="J9" s="25" t="s">
+      <c r="G12" s="21"/>
+      <c r="H12" s="21">
+        <v>1</v>
+      </c>
+      <c r="I12" s="21">
+        <v>0</v>
+      </c>
+      <c r="J12" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="K9" s="25" t="s">
+      <c r="K12" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="L9" s="22" t="s">
+      <c r="L12" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="22">
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="21">
         <v>9</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C13" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D13" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E13" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F13" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22">
-        <v>1</v>
-      </c>
-      <c r="I10" s="22">
-        <v>0</v>
-      </c>
-      <c r="J10" s="25" t="s">
+      <c r="G13" s="21"/>
+      <c r="H13" s="21">
+        <v>1</v>
+      </c>
+      <c r="I13" s="21">
+        <v>0</v>
+      </c>
+      <c r="J13" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="K10" s="25" t="s">
+      <c r="K13" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="L10" s="22" t="s">
+      <c r="L13" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="25.5" customHeight="1">
-      <c r="A11" s="22">
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="21">
         <v>10</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C14" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D14" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E14" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F14" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G14" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H14" s="21">
         <v>0.25</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I14" s="21">
         <v>-0.25</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="J14" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="K11" s="25" t="s">
+      <c r="K14" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="L11" s="22" t="s">
+      <c r="L14" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="24.5" customHeight="1">
-      <c r="A12" s="22">
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="24.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="21">
         <v>11</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B15" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C15" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D15" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E15" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F15" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G15" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H15" s="21">
         <v>0.25</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I15" s="21">
         <v>-0.25</v>
       </c>
-      <c r="J12" s="25" t="s">
+      <c r="J15" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="K12" s="25" t="s">
+      <c r="K15" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="L12" s="22" t="s">
+      <c r="L15" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="26.5" customHeight="1">
-      <c r="A13" s="22">
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="21">
         <v>12</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C16" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D16" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E16" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F16" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G16" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H16" s="21">
         <v>0.25</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I16" s="21">
         <v>-0.25</v>
       </c>
-      <c r="J13" s="25" t="s">
+      <c r="J16" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="K13" s="25" t="s">
+      <c r="K16" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="L13" s="22" t="s">
+      <c r="L16" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="22">
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="21">
         <v>13</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B17" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C17" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D17" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E17" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F17" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22">
-        <v>1</v>
-      </c>
-      <c r="I14" s="22">
-        <v>0</v>
-      </c>
-      <c r="J14" s="25" t="s">
+      <c r="G17" s="21"/>
+      <c r="H17" s="21">
+        <v>1</v>
+      </c>
+      <c r="I17" s="21">
+        <v>0</v>
+      </c>
+      <c r="J17" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="K14" s="27" t="s">
+      <c r="K17" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="L14" s="22" t="s">
+      <c r="L17" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="22">
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="21">
         <v>14</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B18" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C18" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D18" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E18" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F18" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22">
-        <v>1</v>
-      </c>
-      <c r="I15" s="22">
-        <v>0</v>
-      </c>
-      <c r="J15" s="25" t="s">
+      <c r="G18" s="21"/>
+      <c r="H18" s="21">
+        <v>1</v>
+      </c>
+      <c r="I18" s="21">
+        <v>0</v>
+      </c>
+      <c r="J18" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="K15" s="27" t="s">
+      <c r="K18" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="L15" s="22" t="s">
+      <c r="L18" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="22">
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="21">
         <v>15</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B19" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C19" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D19" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E19" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F19" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22">
-        <v>1</v>
-      </c>
-      <c r="I16" s="22">
-        <v>0</v>
-      </c>
-      <c r="J16" s="25" t="s">
+      <c r="G19" s="21"/>
+      <c r="H19" s="21">
+        <v>1</v>
+      </c>
+      <c r="I19" s="21">
+        <v>0</v>
+      </c>
+      <c r="J19" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="K16" s="27" t="s">
+      <c r="K19" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="L16" s="22" t="s">
+      <c r="L19" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="22">
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="21">
         <v>16</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B20" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C20" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D20" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E20" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F20" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22">
-        <v>1</v>
-      </c>
-      <c r="I17" s="22">
-        <v>0</v>
-      </c>
-      <c r="J17" s="25" t="s">
+      <c r="G20" s="21"/>
+      <c r="H20" s="21">
+        <v>1</v>
+      </c>
+      <c r="I20" s="21">
+        <v>0</v>
+      </c>
+      <c r="J20" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="K17" s="27" t="s">
+      <c r="K20" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="L17" s="22" t="s">
+      <c r="L20" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="20">
-      <c r="A18" s="22">
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="22" x14ac:dyDescent="0.2">
+      <c r="A21" s="21">
         <v>17</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B21" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C21" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D21" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E21" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F21" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G21" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H21" s="21">
         <v>5</v>
       </c>
-      <c r="I18" s="22">
-        <v>0</v>
-      </c>
-      <c r="J18" s="25" t="s">
+      <c r="I21" s="21">
+        <v>0</v>
+      </c>
+      <c r="J21" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="K18" s="25" t="s">
+      <c r="K21" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="L18" s="22" t="s">
+      <c r="L21" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="30" customHeight="1">
-      <c r="A19" s="22">
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="21">
         <v>18</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B22" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C22" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D22" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E22" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F22" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G22" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H22" s="21">
         <v>0.33300000000000002</v>
       </c>
-      <c r="I19" s="22">
-        <v>0</v>
-      </c>
-      <c r="J19" s="25" t="s">
+      <c r="I22" s="21">
+        <v>0</v>
+      </c>
+      <c r="J22" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="K19" s="25" t="s">
+      <c r="K22" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="L19" s="22" t="s">
+      <c r="L22" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="20">
-      <c r="A20" s="22">
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="22" x14ac:dyDescent="0.2">
+      <c r="A23" s="21">
         <v>19</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B23" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C23" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D23" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E23" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F23" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G23" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H23" s="21">
         <v>0.33300000000000002</v>
       </c>
-      <c r="I20" s="22">
-        <v>0</v>
-      </c>
-      <c r="J20" s="25" t="s">
+      <c r="I23" s="21">
+        <v>0</v>
+      </c>
+      <c r="J23" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="K20" s="25" t="s">
+      <c r="K23" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="L20" s="22" t="s">
+      <c r="L23" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="20">
-      <c r="A21" s="22">
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="22" x14ac:dyDescent="0.2">
+      <c r="A24" s="21">
         <v>20</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B24" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C24" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D24" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E24" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F24" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G24" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H24" s="21">
         <v>0.1</v>
       </c>
-      <c r="I21" s="22">
-        <v>0</v>
-      </c>
-      <c r="J21" s="25" t="s">
+      <c r="I24" s="21">
+        <v>0</v>
+      </c>
+      <c r="J24" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="K21" s="25" t="s">
+      <c r="K24" s="24" t="s">
         <v>248</v>
       </c>
-      <c r="L21" s="22" t="s">
+      <c r="L24" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="20">
-      <c r="A22" s="22">
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="22" x14ac:dyDescent="0.2">
+      <c r="A25" s="21">
         <v>21</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B25" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C25" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D25" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E25" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F25" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G25" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H25" s="21">
         <v>0.2</v>
       </c>
-      <c r="I22" s="22">
-        <v>0</v>
-      </c>
-      <c r="J22" s="25" t="s">
+      <c r="I25" s="21">
+        <v>0</v>
+      </c>
+      <c r="J25" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="K22" s="25" t="s">
+      <c r="K25" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="L22" s="22" t="s">
+      <c r="L25" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="20">
-      <c r="A23" s="22">
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="22" x14ac:dyDescent="0.2">
+      <c r="A26" s="21">
         <v>22</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B26" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C26" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D26" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E26" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F26" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G26" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H26" s="21">
         <v>3</v>
       </c>
-      <c r="I23" s="22">
-        <v>0</v>
-      </c>
-      <c r="J23" s="25" t="s">
+      <c r="I26" s="21">
+        <v>0</v>
+      </c>
+      <c r="J26" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="K23" s="25" t="s">
+      <c r="K26" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="L23" s="22" t="s">
+      <c r="L26" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="20">
-      <c r="A24" s="22">
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="22" x14ac:dyDescent="0.2">
+      <c r="A27" s="21">
         <v>23</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B27" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C27" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D27" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E27" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F27" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G27" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H27" s="21">
         <v>3</v>
       </c>
-      <c r="I24" s="22">
-        <v>0</v>
-      </c>
-      <c r="J24" s="25" t="s">
+      <c r="I27" s="21">
+        <v>0</v>
+      </c>
+      <c r="J27" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="K24" s="25" t="s">
+      <c r="K27" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="L24" s="22" t="s">
+      <c r="L27" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="20">
-      <c r="A25" s="22">
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="22" x14ac:dyDescent="0.2">
+      <c r="A28" s="21">
         <v>24</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B28" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C28" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D28" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E28" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F28" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G28" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H28" s="21">
         <v>10</v>
       </c>
-      <c r="I25" s="22">
-        <v>0</v>
-      </c>
-      <c r="J25" s="25" t="s">
+      <c r="I28" s="21">
+        <v>0</v>
+      </c>
+      <c r="J28" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="K25" s="25" t="s">
+      <c r="K28" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="L25" s="22" t="s">
+      <c r="L28" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="30">
-      <c r="A26" s="22">
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="33" x14ac:dyDescent="0.2">
+      <c r="A29" s="21">
         <v>25</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B29" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C29" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D29" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E29" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="F26" s="25" t="s">
+      <c r="F29" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G29" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H29" s="21">
         <v>0.25</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I29" s="21">
         <v>-0.25</v>
       </c>
-      <c r="J26" s="25" t="s">
+      <c r="J29" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="K26" s="25" t="s">
+      <c r="K29" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="L26" s="22" t="s">
+      <c r="L29" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="20">
-      <c r="A27" s="22">
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="22" x14ac:dyDescent="0.2">
+      <c r="A30" s="21">
         <v>26</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B30" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C30" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D30" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E30" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F30" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G30" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H30" s="21">
         <v>0.25</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I30" s="21">
         <v>-0.25</v>
       </c>
-      <c r="J27" s="25" t="s">
+      <c r="J30" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="K27" s="25" t="s">
+      <c r="K30" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="L27" s="22" t="s">
+      <c r="L30" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="22">
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="21">
         <v>27</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B31" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C31" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D31" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E31" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F31" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G31" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="H28" s="22">
-        <v>1</v>
-      </c>
-      <c r="I28" s="22">
-        <v>0</v>
-      </c>
-      <c r="J28" s="25" t="s">
+      <c r="H31" s="21">
+        <v>1</v>
+      </c>
+      <c r="I31" s="21">
+        <v>0</v>
+      </c>
+      <c r="J31" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="K28" s="27" t="s">
+      <c r="K31" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="L28" s="22" t="s">
+      <c r="L31" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="A29" s="22">
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="21">
         <v>28</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B32" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C32" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D32" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E32" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="F29" s="25" t="s">
+      <c r="F32" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G32" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="H29" s="22">
-        <v>1</v>
-      </c>
-      <c r="I29" s="22">
-        <v>0</v>
-      </c>
-      <c r="J29" s="25" t="s">
+      <c r="H32" s="21">
+        <v>1</v>
+      </c>
+      <c r="I32" s="21">
+        <v>0</v>
+      </c>
+      <c r="J32" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="K29" s="27" t="s">
+      <c r="K32" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="L29" s="22" t="s">
+      <c r="L32" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
-      <c r="A30" s="22">
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="21">
         <v>29</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B33" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C33" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D33" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E33" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="F30" s="25" t="s">
+      <c r="F33" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="G30" s="22" t="s">
+      <c r="G33" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="H30" s="22">
-        <v>1</v>
-      </c>
-      <c r="I30" s="22">
-        <v>0</v>
-      </c>
-      <c r="J30" s="25" t="s">
+      <c r="H33" s="21">
+        <v>1</v>
+      </c>
+      <c r="I33" s="21">
+        <v>0</v>
+      </c>
+      <c r="J33" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="K30" s="27" t="s">
+      <c r="K33" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="L30" s="22" t="s">
+      <c r="L33" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="20">
-      <c r="A31" s="22">
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="22" x14ac:dyDescent="0.2">
+      <c r="A34" s="21">
         <v>30</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B34" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C34" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D34" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E34" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="F31" s="25" t="s">
+      <c r="F34" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="G31" s="22" t="s">
+      <c r="G34" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="H31" s="22">
+      <c r="H34" s="21">
         <v>0.2</v>
       </c>
-      <c r="I31" s="22">
-        <v>0</v>
-      </c>
-      <c r="J31" s="25" t="s">
+      <c r="I34" s="21">
+        <v>0</v>
+      </c>
+      <c r="J34" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="K31" s="25" t="s">
+      <c r="K34" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="L31" s="22" t="s">
+      <c r="L34" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="20">
-      <c r="A32" s="22">
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="22" x14ac:dyDescent="0.2">
+      <c r="A35" s="21">
         <v>31</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B35" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C35" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D35" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E35" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="F35" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="G32" s="22" t="s">
+      <c r="G35" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="H32" s="22">
+      <c r="H35" s="21">
         <v>0.2</v>
       </c>
-      <c r="I32" s="22">
-        <v>0</v>
-      </c>
-      <c r="J32" s="25" t="s">
+      <c r="I35" s="21">
+        <v>0</v>
+      </c>
+      <c r="J35" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="K32" s="25" t="s">
+      <c r="K35" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="L32" s="22" t="s">
+      <c r="L35" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
-      <c r="A33" s="22">
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="21">
         <v>32</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B36" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C36" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D36" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E36" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="F33" s="25" t="s">
+      <c r="F36" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="G33" s="22" t="s">
+      <c r="G36" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="H33" s="22">
-        <v>1</v>
-      </c>
-      <c r="I33" s="22">
-        <v>0</v>
-      </c>
-      <c r="J33" s="25" t="s">
+      <c r="H36" s="21">
+        <v>1</v>
+      </c>
+      <c r="I36" s="21">
+        <v>0</v>
+      </c>
+      <c r="J36" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="K33" s="27" t="s">
+      <c r="K36" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="L33" s="22" t="s">
+      <c r="L36" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
-      <c r="A34" s="22">
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="21">
         <v>33</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B37" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C37" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D37" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E37" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="F34" s="25" t="s">
+      <c r="F37" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="G34" s="22" t="s">
+      <c r="G37" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="H34" s="22">
-        <v>1</v>
-      </c>
-      <c r="I34" s="22">
-        <v>0</v>
-      </c>
-      <c r="J34" s="25" t="s">
+      <c r="H37" s="21">
+        <v>1</v>
+      </c>
+      <c r="I37" s="21">
+        <v>0</v>
+      </c>
+      <c r="J37" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="K34" s="27" t="s">
+      <c r="K37" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="L34" s="22" t="s">
+      <c r="L37" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18">
-      <c r="A35" s="22">
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="21">
         <v>34</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B38" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C38" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D38" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E38" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="F35" s="25" t="s">
+      <c r="F38" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="G35" s="22" t="s">
+      <c r="G38" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="H35" s="22">
-        <v>1</v>
-      </c>
-      <c r="I35" s="22">
-        <v>0</v>
-      </c>
-      <c r="J35" s="25" t="s">
+      <c r="H38" s="21">
+        <v>1</v>
+      </c>
+      <c r="I38" s="21">
+        <v>0</v>
+      </c>
+      <c r="J38" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="K35" s="27" t="s">
+      <c r="K38" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="L35" s="22" t="s">
+      <c r="L38" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18">
-      <c r="A36" s="22">
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="21">
         <v>35</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B39" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C39" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D39" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E39" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="F36" s="25" t="s">
+      <c r="F39" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="G36" s="22" t="s">
+      <c r="G39" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="H36" s="22">
-        <v>1</v>
-      </c>
-      <c r="I36" s="22">
-        <v>0</v>
-      </c>
-      <c r="J36" s="25" t="s">
+      <c r="H39" s="21">
+        <v>1</v>
+      </c>
+      <c r="I39" s="21">
+        <v>0</v>
+      </c>
+      <c r="J39" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="K36" s="27" t="s">
+      <c r="K39" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="L36" s="22" t="s">
+      <c r="L39" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" ht="20">
-      <c r="A37" s="22">
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="22" x14ac:dyDescent="0.2">
+      <c r="A40" s="21">
         <v>36</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B40" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C40" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D40" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E40" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="F37" s="25" t="s">
+      <c r="F40" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="G37" s="22" t="s">
+      <c r="G40" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="H37" s="22">
+      <c r="H40" s="21">
         <v>0.25</v>
       </c>
-      <c r="I37" s="22">
+      <c r="I40" s="21">
         <v>-0.25</v>
       </c>
-      <c r="J37" s="25" t="s">
+      <c r="J40" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="K37" s="25" t="s">
+      <c r="K40" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="L37" s="22" t="s">
+      <c r="L40" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" ht="23.5" customHeight="1">
-      <c r="A38" s="22">
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="21">
         <v>37</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B41" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C41" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D41" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E41" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="F38" s="25" t="s">
+      <c r="F41" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="G38" s="22" t="s">
+      <c r="G41" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="H38" s="22">
+      <c r="H41" s="21">
         <v>0.25</v>
       </c>
-      <c r="I38" s="22">
+      <c r="I41" s="21">
         <v>-0.25</v>
       </c>
-      <c r="J38" s="25" t="s">
+      <c r="J41" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="K38" s="25" t="s">
+      <c r="K41" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="L38" s="22" t="s">
+      <c r="L41" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
-      <c r="A39" s="22">
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="21">
         <v>38</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B42" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C42" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D42" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E42" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="F39" s="25" t="s">
+      <c r="F42" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22">
-        <v>1</v>
-      </c>
-      <c r="I39" s="22">
-        <v>0</v>
-      </c>
-      <c r="J39" s="25" t="s">
+      <c r="G42" s="21"/>
+      <c r="H42" s="21">
+        <v>1</v>
+      </c>
+      <c r="I42" s="21">
+        <v>0</v>
+      </c>
+      <c r="J42" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="K39" s="27" t="s">
+      <c r="K42" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="L39" s="22" t="s">
+      <c r="L42" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18">
-      <c r="A40" s="22">
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="21">
         <v>39</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B43" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C43" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D43" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E43" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="F40" s="25" t="s">
+      <c r="F43" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22">
-        <v>1</v>
-      </c>
-      <c r="I40" s="22">
-        <v>0</v>
-      </c>
-      <c r="J40" s="25" t="s">
+      <c r="G43" s="21"/>
+      <c r="H43" s="21">
+        <v>1</v>
+      </c>
+      <c r="I43" s="21">
+        <v>0</v>
+      </c>
+      <c r="J43" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="K40" s="27" t="s">
+      <c r="K43" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="L40" s="22" t="s">
+      <c r="L43" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
-      <c r="R40" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
-      <c r="A41" s="22">
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="21">
         <v>40</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B44" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C44" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D44" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E44" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="F41" s="25" t="s">
+      <c r="F44" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22">
-        <v>1</v>
-      </c>
-      <c r="I41" s="22">
-        <v>0</v>
-      </c>
-      <c r="J41" s="25" t="s">
+      <c r="G44" s="21"/>
+      <c r="H44" s="21">
+        <v>1</v>
+      </c>
+      <c r="I44" s="21">
+        <v>0</v>
+      </c>
+      <c r="J44" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="K41" s="27" t="s">
+      <c r="K44" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="L41" s="22" t="s">
+      <c r="L44" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="22"/>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="22"/>
-      <c r="R41" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18">
-      <c r="A42" s="22">
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="21">
         <v>41</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B45" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C45" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D45" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="E45" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="F42" s="25" t="s">
+      <c r="F45" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22">
-        <v>1</v>
-      </c>
-      <c r="I42" s="22">
-        <v>0</v>
-      </c>
-      <c r="J42" s="25" t="s">
+      <c r="G45" s="21"/>
+      <c r="H45" s="21">
+        <v>1</v>
+      </c>
+      <c r="I45" s="21">
+        <v>0</v>
+      </c>
+      <c r="J45" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="K42" s="27" t="s">
+      <c r="K45" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="L42" s="22" t="s">
+      <c r="L45" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="22"/>
-      <c r="R42" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
-      <c r="A43" s="22">
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="21">
         <v>42</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B46" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C46" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D46" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E43" s="22" t="s">
+      <c r="E46" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="F43" s="25" t="s">
+      <c r="F46" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22">
-        <v>1</v>
-      </c>
-      <c r="I43" s="22">
-        <v>0</v>
-      </c>
-      <c r="J43" s="25" t="s">
+      <c r="G46" s="21"/>
+      <c r="H46" s="21">
+        <v>1</v>
+      </c>
+      <c r="I46" s="21">
+        <v>0</v>
+      </c>
+      <c r="J46" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="K43" s="27" t="s">
+      <c r="K46" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="L43" s="22" t="s">
+      <c r="L46" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="22"/>
-      <c r="R43" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18">
-      <c r="A44" s="22">
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="21">
         <v>43</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B47" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C47" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D47" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E47" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="F44" s="25" t="s">
+      <c r="F47" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22">
-        <v>1</v>
-      </c>
-      <c r="I44" s="22">
-        <v>0</v>
-      </c>
-      <c r="J44" s="22"/>
-      <c r="K44" s="27" t="s">
+      <c r="G47" s="21"/>
+      <c r="H47" s="21">
+        <v>1</v>
+      </c>
+      <c r="I47" s="21">
+        <v>0</v>
+      </c>
+      <c r="J47" s="21"/>
+      <c r="K47" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="L44" s="22" t="s">
+      <c r="L47" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="22"/>
-      <c r="R44" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18">
-      <c r="A45" s="22">
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" s="21">
         <v>44</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B48" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C48" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D48" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="E48" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="F45" s="25" t="s">
+      <c r="F48" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22">
-        <v>1</v>
-      </c>
-      <c r="I45" s="22">
-        <v>0</v>
-      </c>
-      <c r="J45" s="22"/>
-      <c r="K45" s="27" t="s">
+      <c r="G48" s="21"/>
+      <c r="H48" s="21">
+        <v>1</v>
+      </c>
+      <c r="I48" s="21">
+        <v>0</v>
+      </c>
+      <c r="J48" s="21"/>
+      <c r="K48" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="L45" s="22" t="s">
+      <c r="L48" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="M45" s="22"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="22"/>
-      <c r="P45" s="22"/>
-      <c r="Q45" s="22"/>
-      <c r="R45" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
-      <c r="A46" s="22">
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="21">
         <v>45</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B49" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C49" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D49" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E46" s="22" t="s">
+      <c r="E49" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="F46" s="26" t="s">
+      <c r="F49" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="G46" s="22" t="s">
+      <c r="G49" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="H46" s="22">
-        <v>1</v>
-      </c>
-      <c r="I46" s="22">
-        <v>0</v>
-      </c>
-      <c r="J46" s="26" t="s">
+      <c r="H49" s="21">
+        <v>1</v>
+      </c>
+      <c r="I49" s="21">
+        <v>0</v>
+      </c>
+      <c r="J49" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22" t="s">
+      <c r="K49" s="21"/>
+      <c r="L49" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="M46" s="22"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="22"/>
-      <c r="P46" s="22"/>
-      <c r="Q46" s="22"/>
-      <c r="R46" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18">
-      <c r="A47" s="22">
+      <c r="M49" s="21"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" s="21">
         <v>46</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B50" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C50" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D50" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E47" s="22" t="s">
+      <c r="E50" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="F47" s="26" t="s">
+      <c r="F50" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="G47" s="22" t="s">
+      <c r="G50" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="H47" s="22">
-        <v>1</v>
-      </c>
-      <c r="I47" s="22">
-        <v>0</v>
-      </c>
-      <c r="J47" s="26" t="s">
+      <c r="H50" s="21">
+        <v>1</v>
+      </c>
+      <c r="I50" s="21">
+        <v>0</v>
+      </c>
+      <c r="J50" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22" t="s">
+      <c r="K50" s="21"/>
+      <c r="L50" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="M47" s="22"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="22"/>
-      <c r="R47" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18">
-      <c r="A48" s="22">
+      <c r="M50" s="21"/>
+      <c r="N50" s="23"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" s="21">
         <v>47</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B51" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C51" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D51" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E48" s="22" t="s">
+      <c r="E51" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="F48" s="26" t="s">
+      <c r="F51" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22">
-        <v>1</v>
-      </c>
-      <c r="I48" s="22">
-        <v>0</v>
-      </c>
-      <c r="J48" s="26" t="s">
+      <c r="G51" s="21"/>
+      <c r="H51" s="21">
+        <v>1</v>
+      </c>
+      <c r="I51" s="21">
+        <v>0</v>
+      </c>
+      <c r="J51" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="K48" s="22"/>
-      <c r="L48" s="22" t="s">
+      <c r="K51" s="21"/>
+      <c r="L51" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="M48" s="22"/>
-      <c r="N48" s="24"/>
-      <c r="O48" s="22"/>
-      <c r="P48" s="22"/>
-      <c r="Q48" s="22"/>
-      <c r="R48" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18">
-      <c r="A49" s="22">
+      <c r="M51" s="21"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="21"/>
+      <c r="R51" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="21">
         <v>48</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B52" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="26" t="s">
+      <c r="C52" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D52" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E49" s="22" t="s">
+      <c r="E52" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="F49" s="26" t="s">
+      <c r="F52" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="G49" s="22" t="s">
+      <c r="G52" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="H49" s="22">
-        <v>1</v>
-      </c>
-      <c r="I49" s="22">
-        <v>0</v>
-      </c>
-      <c r="J49" s="26" t="s">
+      <c r="H52" s="21">
+        <v>1</v>
+      </c>
+      <c r="I52" s="21">
+        <v>0</v>
+      </c>
+      <c r="J52" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22" t="s">
+      <c r="K52" s="21"/>
+      <c r="L52" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="M49" s="22"/>
-      <c r="N49" s="24"/>
-      <c r="O49" s="22"/>
-      <c r="P49" s="22"/>
-      <c r="Q49" s="22"/>
-      <c r="R49" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18">
-      <c r="A50" s="22">
+      <c r="M52" s="21"/>
+      <c r="N52" s="23"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="21"/>
+      <c r="R52" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" s="21">
         <v>49</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B53" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="C53" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="D50" s="22" t="s">
+      <c r="D53" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E50" s="22" t="s">
+      <c r="E53" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="F50" s="26" t="s">
+      <c r="F53" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22">
-        <v>1</v>
-      </c>
-      <c r="I50" s="22">
-        <v>0</v>
-      </c>
-      <c r="J50" s="26" t="s">
+      <c r="G53" s="21"/>
+      <c r="H53" s="21">
+        <v>1</v>
+      </c>
+      <c r="I53" s="21">
+        <v>0</v>
+      </c>
+      <c r="J53" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22" t="s">
+      <c r="K53" s="21"/>
+      <c r="L53" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="M50" s="22"/>
-      <c r="N50" s="24"/>
-      <c r="O50" s="22"/>
-      <c r="P50" s="22"/>
-      <c r="Q50" s="22"/>
-      <c r="R50" s="22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18">
-      <c r="A51" s="22">
+      <c r="M53" s="21"/>
+      <c r="N53" s="23"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="21"/>
+      <c r="R53" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" s="21">
         <v>50</v>
       </c>
-      <c r="B51" s="26" t="s">
+      <c r="B54" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="C51" s="26" t="s">
+      <c r="C54" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="D54" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E51" s="22" t="s">
+      <c r="E54" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="F51" s="26" t="s">
+      <c r="F54" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="G51" s="3"/>
-      <c r="H51" s="22">
-        <v>1</v>
-      </c>
-      <c r="I51" s="22">
-        <v>0</v>
-      </c>
-      <c r="J51" s="26" t="s">
+      <c r="G54" s="3"/>
+      <c r="H54" s="21">
+        <v>1</v>
+      </c>
+      <c r="I54" s="21">
+        <v>0</v>
+      </c>
+      <c r="J54" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="K51" s="3"/>
-      <c r="L51" s="22" t="s">
+      <c r="K54" s="3"/>
+      <c r="L54" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
-    </row>
-    <row r="52" spans="1:18">
-      <c r="A52" s="22">
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" s="21">
         <v>51</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B55" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="C55" s="25" t="s">
         <v>268</v>
       </c>
-      <c r="D52" s="22" t="s">
+      <c r="D55" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E52" s="22" t="s">
+      <c r="E55" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="F52" s="26" t="s">
+      <c r="F55" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="G52" s="3"/>
-      <c r="H52" s="22">
-        <v>1</v>
-      </c>
-      <c r="I52" s="22">
-        <v>0</v>
-      </c>
-      <c r="J52" s="26" t="s">
+      <c r="G55" s="3"/>
+      <c r="H55" s="21">
+        <v>1</v>
+      </c>
+      <c r="I55" s="21">
+        <v>0</v>
+      </c>
+      <c r="J55" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="K52" s="3"/>
-      <c r="L52" s="22" t="s">
+      <c r="K55" s="3"/>
+      <c r="L55" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1 R5:R53 M2:M4">
       <formula1>"Big Endian,Littile Endian"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1 L5:L55 H2:H4">
       <formula1>"Bool,I8,U8,I16,U16,float,DBL,I64,U64"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E55">
       <formula1>"hide,num,line,bar,pie"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3879,14 +4033,14 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3908,25 +4062,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.90625" customWidth="1"/>
-    <col min="3" max="4" width="17.26953125" customWidth="1"/>
-    <col min="5" max="5" width="12.90625" customWidth="1"/>
-    <col min="6" max="6" width="11.90625" customWidth="1"/>
-    <col min="7" max="7" width="10.7265625" customWidth="1"/>
-    <col min="8" max="8" width="26.36328125" customWidth="1"/>
-    <col min="9" max="9" width="14.453125" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="3" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3971,46 +4125,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.7265625" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" customWidth="1"/>
-    <col min="4" max="4" width="21.6328125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.6328125" customWidth="1"/>
-    <col min="6" max="6" width="14.08984375" customWidth="1"/>
-    <col min="7" max="7" width="26.54296875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="7" max="7" width="26.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>11</v>
       </c>
       <c r="H1" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4024,42 +4179,43 @@
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.90625" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
         <v>158</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -4077,7 +4233,7 @@
               </from>
               <to>
                 <xdr:col>17</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
+                <xdr:colOff>596900</xdr:colOff>
                 <xdr:row>19</xdr:row>
                 <xdr:rowOff>12700</xdr:rowOff>
               </to>
@@ -4101,42 +4257,43 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
         <v>164</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4145,1687 +4302,1687 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.90625" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" customWidth="1"/>
-    <col min="3" max="3" width="22.6328125" customWidth="1"/>
-    <col min="4" max="4" width="21.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.54296875" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" customWidth="1"/>
-    <col min="8" max="8" width="10.6328125" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" customWidth="1"/>
-    <col min="10" max="11" width="10.1796875" customWidth="1"/>
-    <col min="12" max="12" width="14.54296875" customWidth="1"/>
-    <col min="13" max="13" width="8.36328125" customWidth="1"/>
-    <col min="14" max="14" width="40.90625" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
+    <col min="10" max="11" width="10.1640625" customWidth="1"/>
+    <col min="12" max="12" width="14.5" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" customWidth="1"/>
+    <col min="14" max="14" width="40.83203125" customWidth="1"/>
     <col min="15" max="15" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="34" customHeight="1">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11">
-        <v>1</v>
-      </c>
-      <c r="K2" s="11">
-        <v>0</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="17" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10">
+        <v>1</v>
+      </c>
+      <c r="K2" s="10">
+        <v>0</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="11"/>
-    </row>
-    <row r="3" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A3" s="11">
+      <c r="O2" s="10"/>
+    </row>
+    <row r="3" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11">
-        <v>1</v>
-      </c>
-      <c r="K3" s="11">
-        <v>0</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="17" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10">
+        <v>1</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M3" s="10"/>
+      <c r="N3" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="O3" s="11"/>
-    </row>
-    <row r="4" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A4" s="11">
+      <c r="O3" s="10"/>
+    </row>
+    <row r="4" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11">
-        <v>1</v>
-      </c>
-      <c r="K4" s="11">
-        <v>0</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="17" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10">
+        <v>1</v>
+      </c>
+      <c r="K4" s="10">
+        <v>0</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M4" s="10"/>
+      <c r="N4" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="O4" s="11"/>
-    </row>
-    <row r="5" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A5" s="11">
+      <c r="O4" s="10"/>
+    </row>
+    <row r="5" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11">
-        <v>1</v>
-      </c>
-      <c r="K5" s="11">
-        <v>0</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="17" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10">
+        <v>1</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M5" s="10"/>
+      <c r="N5" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="O5" s="11"/>
-    </row>
-    <row r="6" spans="1:15" ht="21" customHeight="1">
-      <c r="A6" s="11">
+      <c r="O5" s="10"/>
+    </row>
+    <row r="6" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11">
-        <v>1</v>
-      </c>
-      <c r="K6" s="11">
-        <v>0</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="17" t="s">
+      <c r="E6" s="14"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10">
+        <v>1</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M6" s="10"/>
+      <c r="N6" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="O6" s="11"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="11">
+      <c r="O6" s="10"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11">
+      <c r="E7" s="14"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10">
         <v>0.25</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="10">
         <v>0.25</v>
       </c>
-      <c r="L7" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M7" s="11" t="s">
+      <c r="L7" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M7" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="N7" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="O7" s="11"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="11">
+      <c r="O7" s="10"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11">
+      <c r="E8" s="14"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10">
         <v>0.25</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="10">
         <v>0.25</v>
       </c>
-      <c r="L8" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M8" s="11" t="s">
+      <c r="L8" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M8" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="N8" s="17" t="s">
+      <c r="N8" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="O8" s="11"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="11">
+      <c r="O8" s="10"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11">
+      <c r="E9" s="14"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10">
         <v>0.25</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <v>0.25</v>
       </c>
-      <c r="L9" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M9" s="11" t="s">
+      <c r="L9" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M9" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="N9" s="17" t="s">
+      <c r="N9" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="O9" s="11"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="11">
+      <c r="O9" s="10"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11">
+      <c r="E10" s="14"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10">
         <v>0.2</v>
       </c>
-      <c r="K10" s="11">
-        <v>0</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M10" s="11"/>
-      <c r="N10" s="17" t="s">
+      <c r="K10" s="10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c r="N10" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="O10" s="11"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="11">
+      <c r="O10" s="10"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11">
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10">
         <v>3</v>
       </c>
-      <c r="K11" s="11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M11" s="11"/>
-      <c r="N11" s="17" t="s">
+      <c r="K11" s="10">
+        <v>0</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c r="N11" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="O11" s="11"/>
-    </row>
-    <row r="12" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A12" s="11">
+      <c r="O11" s="10"/>
+    </row>
+    <row r="12" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11">
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10">
         <v>3</v>
       </c>
-      <c r="K12" s="11">
-        <v>0</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M12" s="11"/>
-      <c r="N12" s="17" t="s">
+      <c r="K12" s="10">
+        <v>0</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c r="N12" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="O12" s="11"/>
-    </row>
-    <row r="13" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A13" s="11">
+      <c r="O12" s="10"/>
+    </row>
+    <row r="13" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11">
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10">
         <v>10</v>
       </c>
-      <c r="K13" s="11">
-        <v>0</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M13" s="11"/>
-      <c r="N13" s="17" t="s">
+      <c r="K13" s="10">
+        <v>0</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c r="N13" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="O13" s="11"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="11">
+      <c r="O13" s="10"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11">
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10">
         <v>0.25</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="10">
         <v>0.25</v>
       </c>
-      <c r="L14" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M14" s="11" t="s">
+      <c r="L14" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M14" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="N14" s="17" t="s">
+      <c r="N14" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="O14" s="11"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="11">
+      <c r="O14" s="10"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
         <v>14</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11">
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10">
         <v>0.25</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="10">
         <v>0.25</v>
       </c>
-      <c r="L15" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M15" s="11" t="s">
+      <c r="L15" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M15" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="N15" s="17" t="s">
+      <c r="N15" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="O15" s="11"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="11">
+      <c r="O15" s="10"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
         <v>15</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11">
-        <v>1</v>
-      </c>
-      <c r="K16" s="11">
-        <v>0</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M16" s="11"/>
-      <c r="N16" s="17" t="s">
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10">
+        <v>1</v>
+      </c>
+      <c r="K16" s="10">
+        <v>0</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c r="N16" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="O16" s="11"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="11">
+      <c r="O16" s="10"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11">
-        <v>1</v>
-      </c>
-      <c r="K17" s="11">
-        <v>0</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M17" s="11"/>
-      <c r="N17" s="17" t="s">
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10">
+        <v>1</v>
+      </c>
+      <c r="K17" s="10">
+        <v>0</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c r="N17" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="O17" s="11"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="11">
+      <c r="O17" s="10"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11">
-        <v>1</v>
-      </c>
-      <c r="K18" s="11">
-        <v>0</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M18" s="11"/>
-      <c r="N18" s="17" t="s">
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10">
+        <v>1</v>
+      </c>
+      <c r="K18" s="10">
+        <v>0</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c r="N18" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="O18" s="11"/>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="11">
+      <c r="O18" s="10"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
         <v>18</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11">
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10">
         <v>0.25</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="10">
         <v>0.25</v>
       </c>
-      <c r="L19" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M19" s="11" t="s">
+      <c r="L19" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M19" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="N19" s="17" t="s">
+      <c r="N19" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="O19" s="11"/>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="11">
+      <c r="O19" s="10"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
         <v>19</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="11">
+      <c r="E20" s="18"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="10">
         <v>0.25</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="10">
         <v>0.25</v>
       </c>
-      <c r="L20" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M20" s="11" t="s">
+      <c r="L20" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M20" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="N20" s="17"/>
-      <c r="O20" s="16"/>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="11">
+      <c r="N20" s="16"/>
+      <c r="O20" s="15"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
         <v>20</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="11">
-        <v>1</v>
-      </c>
-      <c r="K21" s="11">
-        <v>0</v>
-      </c>
-      <c r="L21" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M21" s="11"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="16"/>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="11">
+      <c r="E21" s="18"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="10">
+        <v>1</v>
+      </c>
+      <c r="K21" s="10">
+        <v>0</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="15"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="10">
         <v>21</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="11">
-        <v>1</v>
-      </c>
-      <c r="K22" s="11">
-        <v>0</v>
-      </c>
-      <c r="L22" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M22" s="16"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="16"/>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="11">
+      <c r="E22" s="18"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="10">
+        <v>1</v>
+      </c>
+      <c r="K22" s="10">
+        <v>0</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M22" s="15"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="15"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="10">
         <v>22</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="11">
-        <v>1</v>
-      </c>
-      <c r="K23" s="11">
-        <v>0</v>
-      </c>
-      <c r="L23" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M23" s="16"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="16"/>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="11">
+      <c r="E23" s="18"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="10">
+        <v>1</v>
+      </c>
+      <c r="K23" s="10">
+        <v>0</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M23" s="15"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="15"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="10">
         <v>23</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="11">
-        <v>1</v>
-      </c>
-      <c r="K24" s="11">
-        <v>0</v>
-      </c>
-      <c r="L24" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M24" s="16"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="16"/>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="11">
+      <c r="E24" s="18"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="10">
+        <v>1</v>
+      </c>
+      <c r="K24" s="10">
+        <v>0</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M24" s="15"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="15"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
         <v>24</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="11">
+      <c r="E25" s="18"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="10">
         <v>0.25</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K25" s="10">
         <v>0.25</v>
       </c>
-      <c r="L25" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M25" s="11" t="s">
+      <c r="L25" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M25" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="N25" s="17"/>
-      <c r="O25" s="16"/>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="11">
+      <c r="N25" s="16"/>
+      <c r="O25" s="15"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
         <v>25</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11">
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10">
         <v>0.25</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K26" s="10">
         <v>0.25</v>
       </c>
-      <c r="L26" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M26" s="11" t="s">
+      <c r="L26" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M26" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="N26" s="17"/>
-      <c r="O26" s="11"/>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="11">
+      <c r="N26" s="16"/>
+      <c r="O26" s="10"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="10">
         <v>26</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11">
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10">
         <v>0.33300000000000002</v>
       </c>
-      <c r="K27" s="11">
-        <v>0</v>
-      </c>
-      <c r="L27" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M27" s="11"/>
-      <c r="N27" s="17" t="s">
+      <c r="K27" s="10">
+        <v>0</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c r="N27" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="O27" s="11"/>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="11">
+      <c r="O27" s="10"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="10">
         <v>27</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11">
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10">
         <v>0.33300000000000002</v>
       </c>
-      <c r="K28" s="11">
-        <v>0</v>
-      </c>
-      <c r="L28" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M28" s="11"/>
-      <c r="N28" s="17" t="s">
+      <c r="K28" s="10">
+        <v>0</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c r="N28" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="O28" s="11"/>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="11">
+      <c r="O28" s="10"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="10">
         <v>28</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="11">
+      <c r="E29" s="18"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="10">
         <v>0.33300000000000002</v>
       </c>
-      <c r="K29" s="11">
-        <v>0</v>
-      </c>
-      <c r="L29" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M29" s="16"/>
-      <c r="N29" s="17" t="s">
+      <c r="K29" s="10">
+        <v>0</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M29" s="15"/>
+      <c r="N29" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="O29" s="16"/>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="11">
+      <c r="O29" s="15"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="10">
         <v>29</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="11">
+      <c r="E30" s="18"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="10">
         <v>0.1</v>
       </c>
-      <c r="K30" s="11">
-        <v>0</v>
-      </c>
-      <c r="L30" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M30" s="16"/>
-      <c r="N30" s="17" t="s">
+      <c r="K30" s="10">
+        <v>0</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M30" s="15"/>
+      <c r="N30" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="O30" s="16"/>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="11">
+      <c r="O30" s="15"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="10">
         <v>30</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="11">
-        <v>1</v>
-      </c>
-      <c r="K31" s="11">
-        <v>0</v>
-      </c>
-      <c r="L31" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M31" s="16"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="16"/>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="11">
+      <c r="E31" s="18"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="10">
+        <v>1</v>
+      </c>
+      <c r="K31" s="10">
+        <v>0</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M31" s="15"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="15"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="10">
         <v>31</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11">
-        <v>1</v>
-      </c>
-      <c r="K32" s="11">
-        <v>0</v>
-      </c>
-      <c r="L32" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M32" s="11"/>
-      <c r="N32" s="17" t="s">
+      <c r="E32" s="14"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10">
+        <v>1</v>
+      </c>
+      <c r="K32" s="10">
+        <v>0</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c r="N32" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="O32" s="11"/>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="11">
+      <c r="O32" s="10"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="10">
         <v>32</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11">
-        <v>1</v>
-      </c>
-      <c r="K33" s="11">
-        <v>0</v>
-      </c>
-      <c r="L33" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M33" s="11"/>
-      <c r="N33" s="17" t="s">
+      <c r="E33" s="14"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10">
+        <v>1</v>
+      </c>
+      <c r="K33" s="10">
+        <v>0</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c r="N33" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="O33" s="11"/>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="11">
+      <c r="O33" s="10"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="10">
         <v>33</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11">
-        <v>1</v>
-      </c>
-      <c r="K34" s="11">
-        <v>0</v>
-      </c>
-      <c r="L34" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M34" s="11"/>
-      <c r="N34" s="17" t="s">
+      <c r="E34" s="14"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10">
+        <v>1</v>
+      </c>
+      <c r="K34" s="10">
+        <v>0</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c r="N34" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="O34" s="11"/>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="11">
+      <c r="O34" s="10"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="10">
         <v>34</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="E35" s="19"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="11">
-        <v>1</v>
-      </c>
-      <c r="K35" s="11">
-        <v>0</v>
-      </c>
-      <c r="L35" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M35" s="16"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="16"/>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="11">
+      <c r="E35" s="18"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="10">
+        <v>1</v>
+      </c>
+      <c r="K35" s="10">
+        <v>0</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M35" s="15"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="15"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="10">
         <v>35</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="E36" s="19"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="11">
-        <v>1</v>
-      </c>
-      <c r="K36" s="11">
-        <v>0</v>
-      </c>
-      <c r="L36" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M36" s="16"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="16"/>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="11">
+      <c r="E36" s="18"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="10">
+        <v>1</v>
+      </c>
+      <c r="K36" s="10">
+        <v>0</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M36" s="15"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="15"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="10">
         <v>36</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="E37" s="19"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="11">
-        <v>1</v>
-      </c>
-      <c r="K37" s="11">
-        <v>0</v>
-      </c>
-      <c r="L37" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M37" s="16"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="16"/>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="11">
+      <c r="E37" s="18"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="10">
+        <v>1</v>
+      </c>
+      <c r="K37" s="10">
+        <v>0</v>
+      </c>
+      <c r="L37" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M37" s="15"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="15"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" s="10">
         <v>37</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="E38" s="19"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="11">
-        <v>1</v>
-      </c>
-      <c r="K38" s="11">
-        <v>0</v>
-      </c>
-      <c r="L38" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M38" s="16"/>
-      <c r="N38" s="17" t="s">
+      <c r="E38" s="18"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="10">
+        <v>1</v>
+      </c>
+      <c r="K38" s="10">
+        <v>0</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M38" s="15"/>
+      <c r="N38" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="O38" s="16"/>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="11">
+      <c r="O38" s="15"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" s="10">
         <v>38</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="E39" s="19"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="11">
-        <v>1</v>
-      </c>
-      <c r="K39" s="11">
-        <v>0</v>
-      </c>
-      <c r="L39" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M39" s="16"/>
-      <c r="N39" s="17" t="s">
+      <c r="E39" s="18"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="10">
+        <v>1</v>
+      </c>
+      <c r="K39" s="10">
+        <v>0</v>
+      </c>
+      <c r="L39" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M39" s="15"/>
+      <c r="N39" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="O39" s="16"/>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="11">
+      <c r="O39" s="15"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" s="10">
         <v>39</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="E40" s="19"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="11">
-        <v>1</v>
-      </c>
-      <c r="K40" s="11">
-        <v>0</v>
-      </c>
-      <c r="L40" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M40" s="16"/>
-      <c r="N40" s="17" t="s">
+      <c r="E40" s="18"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="10">
+        <v>1</v>
+      </c>
+      <c r="K40" s="10">
+        <v>0</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M40" s="15"/>
+      <c r="N40" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="O40" s="16"/>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="11">
+      <c r="O40" s="15"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" s="10">
         <v>40</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="E41" s="19"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="11">
-        <v>1</v>
-      </c>
-      <c r="K41" s="11">
-        <v>0</v>
-      </c>
-      <c r="L41" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M41" s="16"/>
-      <c r="N41" s="17" t="s">
+      <c r="E41" s="18"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="10">
+        <v>1</v>
+      </c>
+      <c r="K41" s="10">
+        <v>0</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M41" s="15"/>
+      <c r="N41" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="O41" s="16"/>
-    </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="11">
+      <c r="O41" s="15"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" s="10">
         <v>41</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="E42" s="19"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="11">
-        <v>1</v>
-      </c>
-      <c r="K42" s="11">
-        <v>0</v>
-      </c>
-      <c r="L42" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M42" s="16"/>
-      <c r="N42" s="17" t="s">
+      <c r="E42" s="18"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="10">
+        <v>1</v>
+      </c>
+      <c r="K42" s="10">
+        <v>0</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M42" s="15"/>
+      <c r="N42" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="O42" s="16"/>
-    </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="11">
+      <c r="O42" s="15"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" s="10">
         <v>42</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="E43" s="19"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="11">
-        <v>1</v>
-      </c>
-      <c r="K43" s="11">
-        <v>0</v>
-      </c>
-      <c r="L43" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M43" s="16"/>
-      <c r="N43" s="17" t="s">
+      <c r="E43" s="18"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="10">
+        <v>1</v>
+      </c>
+      <c r="K43" s="10">
+        <v>0</v>
+      </c>
+      <c r="L43" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M43" s="15"/>
+      <c r="N43" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="O43" s="16"/>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="11">
+      <c r="O43" s="15"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" s="10">
         <v>43</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E44" s="19"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="11">
-        <v>1</v>
-      </c>
-      <c r="K44" s="11">
-        <v>0</v>
-      </c>
-      <c r="L44" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M44" s="16"/>
-      <c r="N44" s="17" t="s">
+      <c r="E44" s="18"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="10">
+        <v>1</v>
+      </c>
+      <c r="K44" s="10">
+        <v>0</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M44" s="15"/>
+      <c r="N44" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="O44" s="16"/>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="11">
+      <c r="O44" s="15"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" s="10">
         <v>44</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="D45" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E45" s="19"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="11">
-        <v>1</v>
-      </c>
-      <c r="K45" s="11">
-        <v>0</v>
-      </c>
-      <c r="L45" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M45" s="16"/>
-      <c r="N45" s="20" t="s">
+      <c r="E45" s="18"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="10">
+        <v>1</v>
+      </c>
+      <c r="K45" s="10">
+        <v>0</v>
+      </c>
+      <c r="L45" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M45" s="15"/>
+      <c r="N45" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="O45" s="16"/>
-    </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="11">
+      <c r="O45" s="15"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" s="10">
         <v>45</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D46" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E46" s="19"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="11">
-        <v>1</v>
-      </c>
-      <c r="K46" s="11">
-        <v>0</v>
-      </c>
-      <c r="L46" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M46" s="16"/>
-      <c r="N46" s="20" t="s">
+      <c r="E46" s="18"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="10">
+        <v>1</v>
+      </c>
+      <c r="K46" s="10">
+        <v>0</v>
+      </c>
+      <c r="L46" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M46" s="15"/>
+      <c r="N46" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="O46" s="16"/>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="11">
+      <c r="O46" s="15"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" s="10">
         <v>46</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E47" s="19"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="11">
-        <v>1</v>
-      </c>
-      <c r="K47" s="11">
-        <v>0</v>
-      </c>
-      <c r="L47" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M47" s="16"/>
-      <c r="N47" s="20" t="s">
+      <c r="E47" s="18"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="10">
+        <v>1</v>
+      </c>
+      <c r="K47" s="10">
+        <v>0</v>
+      </c>
+      <c r="L47" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M47" s="15"/>
+      <c r="N47" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="O47" s="16"/>
-    </row>
-    <row r="48" spans="1:15">
-      <c r="A48" s="11">
+      <c r="O47" s="15"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" s="10">
         <v>47</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="D48" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E48" s="19"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="11">
-        <v>1</v>
-      </c>
-      <c r="K48" s="11">
-        <v>0</v>
-      </c>
-      <c r="L48" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M48" s="16"/>
-      <c r="N48" s="20" t="s">
+      <c r="E48" s="18"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="10">
+        <v>1</v>
+      </c>
+      <c r="K48" s="10">
+        <v>0</v>
+      </c>
+      <c r="L48" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M48" s="15"/>
+      <c r="N48" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="O48" s="16"/>
-    </row>
-    <row r="49" spans="1:15">
-      <c r="A49" s="11">
+      <c r="O48" s="15"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" s="10">
         <v>48</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="D49" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E49" s="19"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="11">
-        <v>1</v>
-      </c>
-      <c r="K49" s="11">
-        <v>0</v>
-      </c>
-      <c r="L49" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M49" s="16"/>
-      <c r="N49" s="20" t="s">
+      <c r="E49" s="18"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="10">
+        <v>1</v>
+      </c>
+      <c r="K49" s="10">
+        <v>0</v>
+      </c>
+      <c r="L49" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M49" s="15"/>
+      <c r="N49" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="O49" s="16"/>
-    </row>
-    <row r="50" spans="1:15">
-      <c r="A50" s="11">
+      <c r="O49" s="15"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" s="10">
         <v>49</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="D50" s="20" t="s">
+      <c r="D50" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="E50" s="19"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="11">
-        <v>1</v>
-      </c>
-      <c r="K50" s="11">
-        <v>0</v>
-      </c>
-      <c r="L50" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="M50" s="16"/>
-      <c r="N50" s="20" t="s">
+      <c r="E50" s="18"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="10">
+        <v>1</v>
+      </c>
+      <c r="K50" s="10">
+        <v>0</v>
+      </c>
+      <c r="L50" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M50" s="15"/>
+      <c r="N50" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="O50" s="16"/>
+      <c r="O50" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
